--- a/Test Files/TestCaseSlaveFiles/MOKAM/API/OMS/A.xlsx
+++ b/Test Files/TestCaseSlaveFiles/MOKAM/API/OMS/A.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestCaseSlaveFiles/MOKAM/API/OMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A042B4-CBBB-B24E-93DD-68A66F505AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BC742-E9F3-9545-9C31-573382B72489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15140" xr2:uid="{B7467152-DBD8-5E48-BE21-8CDF68B63C1D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15140" activeTab="1" xr2:uid="{B7467152-DBD8-5E48-BE21-8CDF68B63C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,12 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>phone</t>
   </si>
   <si>
     <t>otp</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>BusinessFlow</t>
+  </si>
+  <si>
+    <t>kdhiudgyidg</t>
+  </si>
+  <si>
+    <t>ygteuygtuygs</t>
+  </si>
+  <si>
+    <t>tyow</t>
+  </si>
+  <si>
+    <t>ejgey</t>
   </si>
 </sst>
 </file>
@@ -394,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47FF143-12DC-3D4F-8AA1-276119168F9B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -422,4 +444,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CCC985-9A82-E84C-B36D-21968675CA71}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>15432</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Files/TestCaseSlaveFiles/MOKAM/API/OMS/A.xlsx
+++ b/Test Files/TestCaseSlaveFiles/MOKAM/API/OMS/A.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestCaseSlaveFiles/MOKAM/API/OMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BC742-E9F3-9545-9C31-573382B72489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB51A30-1A3C-1F4B-AC6D-50653D8DB516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15140" activeTab="1" xr2:uid="{B7467152-DBD8-5E48-BE21-8CDF68B63C1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B7467152-DBD8-5E48-BE21-8CDF68B63C1D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Valid" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Valid" sheetId="1" r:id="rId2"/>
+    <sheet name="Invalid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>phone</t>
   </si>
@@ -50,19 +51,22 @@
     <t>TestCase</t>
   </si>
   <si>
-    <t>BusinessFlow</t>
-  </si>
-  <si>
-    <t>kdhiudgyidg</t>
-  </si>
-  <si>
-    <t>ygteuygtuygs</t>
-  </si>
-  <si>
-    <t>tyow</t>
-  </si>
-  <si>
-    <t>ejgey</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform some test case </t>
+  </si>
+  <si>
+    <t>TestStep1</t>
+  </si>
+  <si>
+    <t>TestStep2</t>
+  </si>
+  <si>
+    <t>TestStep3</t>
   </si>
 </sst>
 </file>
@@ -413,6 +417,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CCC985-9A82-E84C-B36D-21968675CA71}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>15432</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47FF143-12DC-3D4F-8AA1-276119168F9B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -446,45 +499,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CCC985-9A82-E84C-B36D-21968675CA71}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A849A-731F-8849-BB07-A3148FD73455}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>15432</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>